--- a/nodes_source_analyses/households/households_water_heater_hybrid_hydrogen_heatpump_air_water_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_water_heater_hybrid_hydrogen_heatpump_air_water_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roosdekok/etm/etdataset/nodes_source_analyses/households/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A32575-C476-7D4D-8EC5-22D1027A05DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C48EBB-665C-AF4A-9433-2F059C89E6F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -47,6 +47,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="216">
   <si>
     <t>Source</t>
   </si>
@@ -816,6 +817,9 @@
   <si>
     <t>CE Delft (CEGOIA)</t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
@@ -829,12 +833,19 @@
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -981,6 +992,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -988,6 +1000,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -995,6 +1008,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1002,6 +1016,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1009,6 +1024,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1016,17 +1032,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1040,11 +1059,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1060,9 +1081,9 @@
       <name val="Lettertype hoofdtekst"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1348,712 +1369,710 @@
   </borders>
   <cellStyleXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="329">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3479,8 +3498,8 @@
   </sheetPr>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -3505,28 +3524,28 @@
       <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="225" t="s">
+      <c r="B2" s="227" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="227"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="229"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="228"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="230"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="232"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="34" customHeight="1">
-      <c r="B4" s="231"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="233"/>
+      <c r="B4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
     </row>
@@ -3636,7 +3655,7 @@
     <row r="12" spans="1:11" ht="20" thickBot="1">
       <c r="A12" s="36"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="236" t="s">
+      <c r="C12" s="226" t="s">
         <v>210</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -3705,7 +3724,7 @@
     <row r="15" spans="1:11" ht="20" thickBot="1">
       <c r="A15" s="36"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="236" t="s">
+      <c r="C15" s="226" t="s">
         <v>209</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -3780,7 +3799,7 @@
       <c r="D18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="219">
+      <c r="E18" s="218">
         <f>'Research data'!E14</f>
         <v>1.2944983818770229E-3</v>
       </c>
@@ -3797,7 +3816,7 @@
     <row r="19" spans="1:11" ht="20" thickBot="1">
       <c r="A19" s="36"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="236" t="s">
+      <c r="C19" s="226" t="s">
         <v>213</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -4288,17 +4307,15 @@
         <v>2</v>
       </c>
       <c r="E41" s="110">
-        <f>'Research data'!E37</f>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="28" t="s">
         <v>21</v>
       </c>
       <c r="H41" s="28"/>
-      <c r="I41" s="114" t="str">
-        <f>LOOKUP(E41,'Research data'!G37:Q37,'Research data'!G$3:Q$3)</f>
-        <v>Quintel WD</v>
+      <c r="I41" s="236" t="s">
+        <v>215</v>
       </c>
       <c r="J41" s="86"/>
     </row>
@@ -4311,14 +4328,14 @@
         <v>9</v>
       </c>
       <c r="E42" s="110">
-        <f>'Research data'!E38</f>
+        <f>'Research data'!E37</f>
         <v>0</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="114" t="str">
-        <f>LOOKUP(E42,'Research data'!G38:Q38,'Research data'!G$3:Q$3)</f>
+        <f>LOOKUP(E42,'Research data'!G37:Q37,'Research data'!G$3:Q$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J42" s="86"/>
@@ -4332,7 +4349,7 @@
         <v>156</v>
       </c>
       <c r="E43" s="110">
-        <f>'Research data'!E39</f>
+        <f>'Research data'!E38</f>
         <v>50713.749060856499</v>
       </c>
       <c r="F43" s="28"/>
@@ -4374,7 +4391,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="110">
-        <f>'Research data'!E42</f>
+        <f>'Research data'!E41</f>
         <v>0</v>
       </c>
       <c r="F46" s="28"/>
@@ -4383,7 +4400,7 @@
       </c>
       <c r="H46" s="28"/>
       <c r="I46" s="114" t="str">
-        <f>LOOKUP(E46,'Research data'!G42:Q42,'Research data'!G$3:Q$3)</f>
+        <f>LOOKUP(E46,'Research data'!G41:Q41,'Research data'!G$3:Q$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J46" s="86"/>
@@ -4397,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="110">
-        <f>'Research data'!E43</f>
+        <f>'Research data'!E42</f>
         <v>0</v>
       </c>
       <c r="F47" s="28"/>
@@ -4406,7 +4423,7 @@
       </c>
       <c r="H47" s="28"/>
       <c r="I47" s="114" t="str">
-        <f>LOOKUP(E47,'Research data'!G43:Q43,'Research data'!G$3:Q$3)</f>
+        <f>LOOKUP(E47,'Research data'!G42:Q42,'Research data'!G$3:Q$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J47" s="86"/>
@@ -4420,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="110">
-        <f>'Research data'!E44</f>
+        <f>'Research data'!E43</f>
         <v>15</v>
       </c>
       <c r="F48" s="28"/>
@@ -4429,7 +4446,7 @@
       </c>
       <c r="H48" s="28"/>
       <c r="I48" s="114" t="str">
-        <f>LOOKUP(E48,'Research data'!G44:Q44,'Research data'!G$3:Q$3)</f>
+        <f>LOOKUP(E48,'Research data'!G43:Q43,'Research data'!G$3:Q$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J48" s="86"/>
@@ -4443,14 +4460,14 @@
         <v>4</v>
       </c>
       <c r="E49" s="110">
-        <f>'Research data'!E45</f>
+        <f>'Research data'!E44</f>
         <v>0</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="114" t="str">
-        <f>LOOKUP(E49,'Research data'!G45:Q45,'Research data'!G$3:Q$3)</f>
+        <f>LOOKUP(E49,'Research data'!G44:Q44,'Research data'!G$3:Q$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J49" s="86"/>
@@ -4464,14 +4481,14 @@
         <v>4</v>
       </c>
       <c r="E50" s="110">
-        <f>'Research data'!E46</f>
+        <f>'Research data'!E45</f>
         <v>0</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
       <c r="I50" s="114" t="str">
-        <f>LOOKUP(E50,'Research data'!G46:Q46,'Research data'!G$3:Q$3)</f>
+        <f>LOOKUP(E50,'Research data'!G45:Q45,'Research data'!G$3:Q$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J50" s="86"/>
@@ -4485,14 +4502,14 @@
         <v>4</v>
       </c>
       <c r="E51" s="110">
-        <f>'Research data'!E47</f>
+        <f>'Research data'!E46</f>
         <v>0</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="114" t="str">
-        <f>LOOKUP(E51,'Research data'!G47:Q47,'Research data'!G$3:Q$3)</f>
+        <f>LOOKUP(E51,'Research data'!G46:Q46,'Research data'!G$3:Q$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J51" s="86"/>
@@ -4506,14 +4523,14 @@
         <v>4</v>
       </c>
       <c r="E52" s="110">
-        <f>'Research data'!E48</f>
+        <f>'Research data'!E47</f>
         <v>11.5</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
       <c r="I52" s="114" t="str">
-        <f>LOOKUP(E52,'Research data'!G48:Q48,'Research data'!G$3:Q$3)</f>
+        <f>LOOKUP(E52,'Research data'!G47:Q47,'Research data'!G$3:Q$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J52" s="86"/>
@@ -4527,14 +4544,14 @@
         <v>4</v>
       </c>
       <c r="E53" s="110">
-        <f>'Research data'!E49</f>
+        <f>'Research data'!E48</f>
         <v>2</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
       <c r="I53" s="114" t="str">
-        <f>LOOKUP(E53,'Research data'!G49:Q49,'Research data'!G$3:Q$3)</f>
+        <f>LOOKUP(E53,'Research data'!G48:Q48,'Research data'!G$3:Q$3)</f>
         <v>Quintel WD</v>
       </c>
       <c r="J53" s="35"/>
@@ -4548,14 +4565,14 @@
         <v>4</v>
       </c>
       <c r="E54" s="110">
-        <f>'Research data'!E50</f>
+        <f>'Research data'!E49</f>
         <v>11.5</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
       <c r="I54" s="114" t="str">
-        <f>LOOKUP(E54,'Research data'!G50:Q50,'Research data'!G$3:Q$3)</f>
+        <f>LOOKUP(E54,'Research data'!G49:Q49,'Research data'!G$3:Q$3)</f>
         <v>Quintel WD</v>
       </c>
     </row>
@@ -4583,10 +4600,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -5702,20 +5719,20 @@
       <c r="A37" s="106"/>
       <c r="B37" s="107"/>
       <c r="C37" s="166" t="str">
-        <f>Dashboard!C41</f>
-        <v>wacc</v>
+        <f>Dashboard!C42</f>
+        <v>takes_part_in_ets</v>
       </c>
       <c r="D37" s="166" t="str">
-        <f>Dashboard!D41</f>
-        <v>%</v>
-      </c>
-      <c r="E37" s="196">
+        <f>Dashboard!D42</f>
+        <v>yes=1, no=0</v>
+      </c>
+      <c r="E37" s="186">
         <f>G37</f>
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F37" s="54"/>
-      <c r="G37" s="196">
-        <v>0.04</v>
+      <c r="G37" s="186">
+        <v>0</v>
       </c>
       <c r="H37" s="187"/>
       <c r="I37" s="187"/>
@@ -5727,85 +5744,75 @@
       <c r="O37" s="188"/>
       <c r="P37" s="188"/>
       <c r="Q37" s="187"/>
-      <c r="R37" s="192" t="s">
-        <v>132</v>
+      <c r="R37" s="153" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="17" thickBot="1">
       <c r="A38" s="106"/>
       <c r="B38" s="107"/>
       <c r="C38" s="166" t="str">
-        <f>Dashboard!C42</f>
-        <v>takes_part_in_ets</v>
+        <f>Dashboard!C43</f>
+        <v>storage.cost_per_mwh</v>
       </c>
       <c r="D38" s="166" t="str">
-        <f>Dashboard!D42</f>
-        <v>yes=1, no=0</v>
+        <f>Dashboard!D43</f>
+        <v>euro/MWh</v>
       </c>
       <c r="E38" s="186">
-        <f>G38</f>
-        <v>0</v>
+        <f>O38</f>
+        <v>50713.749060856499</v>
       </c>
       <c r="F38" s="54"/>
-      <c r="G38" s="186">
-        <v>0</v>
-      </c>
+      <c r="G38" s="187"/>
       <c r="H38" s="187"/>
       <c r="I38" s="187"/>
       <c r="J38" s="188"/>
       <c r="K38" s="188"/>
       <c r="L38" s="188"/>
       <c r="M38" s="188"/>
-      <c r="N38" s="188"/>
-      <c r="O38" s="188"/>
-      <c r="P38" s="188"/>
-      <c r="Q38" s="187"/>
-      <c r="R38" s="153" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="17" thickBot="1">
+      <c r="N38" s="195">
+        <f>Notes!E310</f>
+        <v>60055.755466803741</v>
+      </c>
+      <c r="O38" s="195">
+        <f>Notes!E280</f>
+        <v>50713.749060856499</v>
+      </c>
+      <c r="P38" s="195" t="str">
+        <f>Notes!F280</f>
+        <v>euro/MWh</v>
+      </c>
+      <c r="Q38" s="188"/>
+      <c r="R38" s="153"/>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="106"/>
       <c r="B39" s="107"/>
-      <c r="C39" s="166" t="str">
-        <f>Dashboard!C43</f>
-        <v>storage.cost_per_mwh</v>
-      </c>
-      <c r="D39" s="166" t="str">
-        <f>Dashboard!D43</f>
-        <v>euro/MWh</v>
-      </c>
-      <c r="E39" s="186">
-        <f>O39</f>
-        <v>50713.749060856499</v>
-      </c>
-      <c r="F39" s="54"/>
-      <c r="G39" s="187"/>
-      <c r="H39" s="187"/>
-      <c r="I39" s="187"/>
-      <c r="J39" s="188"/>
-      <c r="K39" s="188"/>
-      <c r="L39" s="188"/>
-      <c r="M39" s="188"/>
-      <c r="N39" s="195">
-        <f>Notes!E310</f>
-        <v>60055.755466803741</v>
-      </c>
-      <c r="O39" s="195">
-        <f>Notes!E280</f>
-        <v>50713.749060856499</v>
-      </c>
-      <c r="P39" s="195" t="str">
-        <f>Notes!F280</f>
-        <v>euro/MWh</v>
-      </c>
-      <c r="Q39" s="188"/>
-      <c r="R39" s="153"/>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="C39" s="26"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="157"/>
+      <c r="K39" s="157"/>
+      <c r="L39" s="157"/>
+      <c r="M39" s="157"/>
+      <c r="N39" s="157"/>
+      <c r="O39" s="157"/>
+      <c r="P39" s="157"/>
+      <c r="Q39" s="155"/>
+      <c r="R39" s="159"/>
+    </row>
+    <row r="40" spans="1:18" ht="17" thickBot="1">
       <c r="A40" s="106"/>
       <c r="B40" s="107"/>
-      <c r="C40" s="26"/>
+      <c r="C40" s="26" t="str">
+        <f>Dashboard!C45</f>
+        <v>Other</v>
+      </c>
       <c r="D40" s="64"/>
       <c r="E40" s="64"/>
       <c r="F40" s="64"/>
@@ -5820,44 +5827,54 @@
       <c r="O40" s="157"/>
       <c r="P40" s="157"/>
       <c r="Q40" s="155"/>
-      <c r="R40" s="159"/>
+      <c r="R40" s="152"/>
     </row>
     <row r="41" spans="1:18" ht="17" thickBot="1">
-      <c r="A41" s="106"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="26" t="str">
-        <f>Dashboard!C45</f>
-        <v>Other</v>
-      </c>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="155"/>
-      <c r="H41" s="155"/>
-      <c r="I41" s="155"/>
-      <c r="J41" s="157"/>
-      <c r="K41" s="157"/>
-      <c r="L41" s="157"/>
-      <c r="M41" s="157"/>
-      <c r="N41" s="157"/>
-      <c r="O41" s="157"/>
-      <c r="P41" s="157"/>
-      <c r="Q41" s="155"/>
-      <c r="R41" s="152"/>
-    </row>
-    <row r="42" spans="1:18" ht="17" thickBot="1">
-      <c r="A42" s="104"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="166" t="str">
+      <c r="A41" s="104"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="166" t="str">
         <f>Dashboard!C46</f>
         <v>land_use_per_unit</v>
       </c>
-      <c r="D42" s="166" t="str">
+      <c r="D41" s="166" t="str">
         <f>Dashboard!D46</f>
         <v>km2</v>
       </c>
-      <c r="E42" s="197">
-        <f>G42</f>
+      <c r="E41" s="196">
+        <f>G41</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="54"/>
+      <c r="G41" s="186">
+        <v>0</v>
+      </c>
+      <c r="H41" s="187"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="188"/>
+      <c r="K41" s="188"/>
+      <c r="L41" s="188"/>
+      <c r="M41" s="188"/>
+      <c r="N41" s="188"/>
+      <c r="O41" s="188"/>
+      <c r="P41" s="188"/>
+      <c r="Q41" s="187"/>
+      <c r="R41" s="153" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="17" thickBot="1">
+      <c r="A42" s="106"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="166" t="str">
+        <f>Dashboard!C47</f>
+        <v>construction_time</v>
+      </c>
+      <c r="D42" s="166" t="str">
+        <f>Dashboard!D47</f>
+        <v>years</v>
+      </c>
+      <c r="E42" s="196">
+        <f t="shared" ref="E42:E49" si="3">G42</f>
         <v>0</v>
       </c>
       <c r="F42" s="54"/>
@@ -5882,20 +5899,20 @@
       <c r="A43" s="106"/>
       <c r="B43" s="107"/>
       <c r="C43" s="166" t="str">
-        <f>Dashboard!C47</f>
-        <v>construction_time</v>
+        <f>Dashboard!C48</f>
+        <v>technical_lifetime</v>
       </c>
       <c r="D43" s="166" t="str">
-        <f>Dashboard!D47</f>
+        <f>Dashboard!D48</f>
         <v>years</v>
       </c>
-      <c r="E43" s="197">
-        <f t="shared" ref="E43:E50" si="3">G43</f>
-        <v>0</v>
+      <c r="E43" s="196">
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="F43" s="54"/>
       <c r="G43" s="186">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H43" s="187"/>
       <c r="I43" s="187"/>
@@ -5907,28 +5924,28 @@
       <c r="O43" s="188"/>
       <c r="P43" s="188"/>
       <c r="Q43" s="187"/>
-      <c r="R43" s="153" t="s">
-        <v>134</v>
+      <c r="R43" s="192" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="17" thickBot="1">
       <c r="A44" s="106"/>
       <c r="B44" s="107"/>
       <c r="C44" s="166" t="str">
-        <f>Dashboard!C48</f>
-        <v>technical_lifetime</v>
+        <f>Dashboard!C49</f>
+        <v>free_co2_factor</v>
       </c>
       <c r="D44" s="166" t="str">
-        <f>Dashboard!D48</f>
-        <v>years</v>
-      </c>
-      <c r="E44" s="197">
+        <f>Dashboard!D49</f>
+        <v>-</v>
+      </c>
+      <c r="E44" s="196">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F44" s="54"/>
       <c r="G44" s="186">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H44" s="187"/>
       <c r="I44" s="187"/>
@@ -5940,22 +5957,22 @@
       <c r="O44" s="188"/>
       <c r="P44" s="188"/>
       <c r="Q44" s="187"/>
-      <c r="R44" s="192" t="s">
-        <v>136</v>
+      <c r="R44" s="153" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="17" thickBot="1">
       <c r="A45" s="106"/>
       <c r="B45" s="107"/>
       <c r="C45" s="166" t="str">
-        <f>Dashboard!C49</f>
-        <v>free_co2_factor</v>
+        <f>Dashboard!C50</f>
+        <v>hours_prep_nl</v>
       </c>
       <c r="D45" s="166" t="str">
-        <f>Dashboard!D49</f>
+        <f>Dashboard!D50</f>
         <v>-</v>
       </c>
-      <c r="E45" s="197">
+      <c r="E45" s="196">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5973,22 +5990,22 @@
       <c r="O45" s="188"/>
       <c r="P45" s="188"/>
       <c r="Q45" s="187"/>
-      <c r="R45" s="153" t="s">
-        <v>134</v>
+      <c r="R45" s="154" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="17" thickBot="1">
       <c r="A46" s="106"/>
       <c r="B46" s="107"/>
       <c r="C46" s="166" t="str">
-        <f>Dashboard!C50</f>
-        <v>hours_prep_nl</v>
+        <f>Dashboard!C51</f>
+        <v>hours_prod_nl</v>
       </c>
       <c r="D46" s="166" t="str">
-        <f>Dashboard!D50</f>
+        <f>Dashboard!D51</f>
         <v>-</v>
       </c>
-      <c r="E46" s="197">
+      <c r="E46" s="196">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6014,20 +6031,21 @@
       <c r="A47" s="106"/>
       <c r="B47" s="107"/>
       <c r="C47" s="166" t="str">
-        <f>Dashboard!C51</f>
-        <v>hours_prod_nl</v>
+        <f>Dashboard!C52</f>
+        <v>hours_place_nl</v>
       </c>
       <c r="D47" s="166" t="str">
-        <f>Dashboard!D51</f>
+        <f>Dashboard!D52</f>
         <v>-</v>
       </c>
-      <c r="E47" s="197">
+      <c r="E47" s="196">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="F47" s="54"/>
-      <c r="G47" s="186">
-        <v>0</v>
+      <c r="G47" s="196">
+        <f>4.5+7</f>
+        <v>11.5</v>
       </c>
       <c r="H47" s="187"/>
       <c r="I47" s="187"/>
@@ -6047,21 +6065,21 @@
       <c r="A48" s="106"/>
       <c r="B48" s="107"/>
       <c r="C48" s="166" t="str">
-        <f>Dashboard!C52</f>
-        <v>hours_place_nl</v>
+        <f>Dashboard!C53</f>
+        <v>hours_maint_nl</v>
       </c>
       <c r="D48" s="166" t="str">
-        <f>Dashboard!D52</f>
+        <f>Dashboard!D53</f>
         <v>-</v>
       </c>
-      <c r="E48" s="197">
+      <c r="E48" s="196">
         <f t="shared" si="3"/>
-        <v>11.5</v>
+        <v>2</v>
       </c>
       <c r="F48" s="54"/>
-      <c r="G48" s="197">
-        <f>4.5+7</f>
-        <v>11.5</v>
+      <c r="G48" s="196">
+        <f>1.5+0.5</f>
+        <v>2</v>
       </c>
       <c r="H48" s="187"/>
       <c r="I48" s="187"/>
@@ -6081,21 +6099,21 @@
       <c r="A49" s="106"/>
       <c r="B49" s="107"/>
       <c r="C49" s="166" t="str">
-        <f>Dashboard!C53</f>
-        <v>hours_maint_nl</v>
+        <f>Dashboard!C54</f>
+        <v>hours_remov_nl</v>
       </c>
       <c r="D49" s="166" t="str">
-        <f>Dashboard!D53</f>
+        <f>Dashboard!D54</f>
         <v>-</v>
       </c>
-      <c r="E49" s="197">
+      <c r="E49" s="196">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>11.5</v>
       </c>
       <c r="F49" s="54"/>
-      <c r="G49" s="197">
-        <f>1.5+0.5</f>
-        <v>2</v>
+      <c r="G49" s="196">
+        <f>4.5+7</f>
+        <v>11.5</v>
       </c>
       <c r="H49" s="187"/>
       <c r="I49" s="187"/>
@@ -6111,39 +6129,25 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="17" thickBot="1">
+    <row r="50" spans="1:18">
       <c r="A50" s="106"/>
       <c r="B50" s="107"/>
-      <c r="C50" s="166" t="str">
-        <f>Dashboard!C54</f>
-        <v>hours_remov_nl</v>
-      </c>
-      <c r="D50" s="166" t="str">
-        <f>Dashboard!D54</f>
-        <v>-</v>
-      </c>
-      <c r="E50" s="197">
-        <f t="shared" si="3"/>
-        <v>11.5</v>
-      </c>
-      <c r="F50" s="54"/>
-      <c r="G50" s="197">
-        <f>4.5+7</f>
-        <v>11.5</v>
-      </c>
-      <c r="H50" s="187"/>
-      <c r="I50" s="187"/>
-      <c r="J50" s="188"/>
-      <c r="K50" s="188"/>
-      <c r="L50" s="188"/>
-      <c r="M50" s="188"/>
-      <c r="N50" s="188"/>
-      <c r="O50" s="188"/>
-      <c r="P50" s="188"/>
-      <c r="Q50" s="187"/>
-      <c r="R50" s="154" t="s">
-        <v>137</v>
-      </c>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="155"/>
+      <c r="J50" s="157"/>
+      <c r="K50" s="157"/>
+      <c r="L50" s="157"/>
+      <c r="M50" s="157"/>
+      <c r="N50" s="157"/>
+      <c r="O50" s="157"/>
+      <c r="P50" s="157"/>
+      <c r="Q50" s="155"/>
+      <c r="R50" s="160"/>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="106"/>
@@ -6163,47 +6167,27 @@
       <c r="O51" s="157"/>
       <c r="P51" s="157"/>
       <c r="Q51" s="155"/>
-      <c r="R51" s="160"/>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="R51" s="161"/>
+    </row>
+    <row r="52" spans="1:18" ht="17" thickBot="1">
       <c r="A52" s="106"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="155"/>
-      <c r="H52" s="155"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="157"/>
-      <c r="K52" s="157"/>
-      <c r="L52" s="157"/>
-      <c r="M52" s="157"/>
-      <c r="N52" s="157"/>
-      <c r="O52" s="157"/>
-      <c r="P52" s="157"/>
-      <c r="Q52" s="155"/>
-      <c r="R52" s="161"/>
-    </row>
-    <row r="53" spans="1:18" ht="17" thickBot="1">
-      <c r="A53" s="106"/>
-      <c r="B53" s="162"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
-      <c r="E53" s="163"/>
-      <c r="F53" s="163"/>
-      <c r="G53" s="164"/>
-      <c r="H53" s="164"/>
-      <c r="I53" s="164"/>
-      <c r="J53" s="163"/>
-      <c r="K53" s="163"/>
-      <c r="L53" s="163"/>
-      <c r="M53" s="163"/>
-      <c r="N53" s="163"/>
-      <c r="O53" s="163"/>
-      <c r="P53" s="163"/>
-      <c r="Q53" s="163"/>
-      <c r="R53" s="165"/>
+      <c r="B52" s="162"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
+      <c r="E52" s="163"/>
+      <c r="F52" s="163"/>
+      <c r="G52" s="164"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="163"/>
+      <c r="K52" s="163"/>
+      <c r="L52" s="163"/>
+      <c r="M52" s="163"/>
+      <c r="N52" s="163"/>
+      <c r="O52" s="163"/>
+      <c r="P52" s="163"/>
+      <c r="Q52" s="163"/>
+      <c r="R52" s="165"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6227,7 +6211,7 @@
   <cols>
     <col min="1" max="1" width="3.28515625" style="39" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="198" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="197" customWidth="1"/>
     <col min="4" max="4" width="13" style="39" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="39" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" style="39" customWidth="1"/>
@@ -6240,7 +6224,7 @@
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
     <row r="2" spans="2:11">
       <c r="B2" s="41"/>
-      <c r="C2" s="199"/>
+      <c r="C2" s="198"/>
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
@@ -6252,7 +6236,7 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="44"/>
-      <c r="C3" s="200" t="s">
+      <c r="C3" s="199" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="45"/>
@@ -6266,7 +6250,7 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="44"/>
-      <c r="C4" s="201"/>
+      <c r="C4" s="200"/>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
@@ -6278,7 +6262,7 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="49"/>
-      <c r="C5" s="202" t="s">
+      <c r="C5" s="201" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="50"/>
@@ -6306,7 +6290,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="44"/>
-      <c r="C6" s="200"/>
+      <c r="C6" s="199"/>
       <c r="D6" s="45"/>
       <c r="E6" s="45"/>
       <c r="F6" s="45"/>
@@ -6318,27 +6302,27 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="44"/>
-      <c r="C7" s="204" t="str">
+      <c r="C7" s="203" t="str">
         <f>'Research data'!C30</f>
         <v>initial_investment</v>
       </c>
-      <c r="D7" s="205"/>
-      <c r="E7" s="206" t="s">
+      <c r="D7" s="204"/>
+      <c r="E7" s="205" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="206" t="s">
+      <c r="F7" s="205" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="207" t="s">
+      <c r="G7" s="206" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="207" t="s">
+      <c r="H7" s="206" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="207" t="s">
+      <c r="I7" s="206" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="207" t="s">
+      <c r="J7" s="206" t="s">
         <v>123</v>
       </c>
       <c r="K7" s="154" t="s">
@@ -6347,864 +6331,864 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="44"/>
-      <c r="C8" s="208"/>
-      <c r="D8" s="209"/>
-      <c r="E8" s="205"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="211"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="211"/>
-      <c r="K8" s="212"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="210"/>
+      <c r="J8" s="210"/>
+      <c r="K8" s="211"/>
     </row>
     <row r="9" spans="2:11" ht="34">
       <c r="B9" s="44"/>
-      <c r="C9" s="213" t="str">
+      <c r="C9" s="212" t="str">
         <f>'Research data'!C27</f>
         <v>heat_output_capacity</v>
       </c>
-      <c r="D9" s="209"/>
-      <c r="E9" s="205" t="s">
+      <c r="D9" s="208"/>
+      <c r="E9" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="210" t="s">
+      <c r="F9" s="209" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="211" t="s">
+      <c r="G9" s="210" t="s">
         <v>125</v>
       </c>
-      <c r="H9" s="211" t="s">
+      <c r="H9" s="210" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="211" t="s">
+      <c r="I9" s="210" t="s">
         <v>124</v>
       </c>
-      <c r="J9" s="211" t="s">
+      <c r="J9" s="210" t="s">
         <v>126</v>
       </c>
-      <c r="K9" s="212" t="s">
+      <c r="K9" s="211" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="44"/>
-      <c r="C10" s="214"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="205"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="211"/>
-      <c r="K10" s="212"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="209"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="210"/>
+      <c r="K10" s="211"/>
     </row>
     <row r="11" spans="2:11" ht="34">
       <c r="B11" s="44"/>
-      <c r="C11" s="214"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="205" t="s">
+      <c r="C11" s="213"/>
+      <c r="D11" s="208"/>
+      <c r="E11" s="204" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="210" t="s">
+      <c r="F11" s="209" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="211" t="s">
+      <c r="G11" s="210" t="s">
         <v>125</v>
       </c>
-      <c r="H11" s="211" t="s">
+      <c r="H11" s="210" t="s">
         <v>125</v>
       </c>
-      <c r="I11" s="211" t="s">
+      <c r="I11" s="210" t="s">
         <v>124</v>
       </c>
-      <c r="J11" s="211" t="s">
+      <c r="J11" s="210" t="s">
         <v>127</v>
       </c>
-      <c r="K11" s="212" t="s">
+      <c r="K11" s="211" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="44"/>
-      <c r="C12" s="208"/>
-      <c r="D12" s="206"/>
-      <c r="E12" s="206"/>
-      <c r="F12" s="206"/>
-      <c r="G12" s="206"/>
-      <c r="H12" s="206"/>
-      <c r="I12" s="206"/>
-      <c r="J12" s="207"/>
-      <c r="K12" s="215"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="205"/>
+      <c r="F12" s="205"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="205"/>
+      <c r="I12" s="205"/>
+      <c r="J12" s="206"/>
+      <c r="K12" s="214"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="44"/>
-      <c r="C13" s="208" t="str">
+      <c r="C13" s="207" t="str">
         <f>'Research data'!C13</f>
         <v>fever.base_cop</v>
       </c>
-      <c r="D13" s="206"/>
-      <c r="E13" s="206" t="s">
+      <c r="D13" s="205"/>
+      <c r="E13" s="205" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="206" t="s">
+      <c r="F13" s="205" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="206">
+      <c r="G13" s="205">
         <v>2015</v>
       </c>
-      <c r="H13" s="206">
+      <c r="H13" s="205">
         <v>2015</v>
       </c>
-      <c r="I13" s="216">
+      <c r="I13" s="215">
         <v>42948</v>
       </c>
-      <c r="J13" s="207" t="s">
+      <c r="J13" s="206" t="s">
         <v>160</v>
       </c>
-      <c r="K13" s="215"/>
+      <c r="K13" s="214"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="44"/>
-      <c r="C14" s="208" t="str">
+      <c r="C14" s="207" t="str">
         <f>'Research data'!C14</f>
         <v xml:space="preserve">fever.capacity.electricity </v>
       </c>
-      <c r="D14" s="206"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="206"/>
-      <c r="G14" s="206"/>
-      <c r="H14" s="206"/>
-      <c r="I14" s="206"/>
-      <c r="J14" s="207"/>
-      <c r="K14" s="215"/>
+      <c r="D14" s="205"/>
+      <c r="E14" s="205"/>
+      <c r="F14" s="205"/>
+      <c r="G14" s="205"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="205"/>
+      <c r="J14" s="206"/>
+      <c r="K14" s="214"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="44"/>
-      <c r="C15" s="208" t="str">
+      <c r="C15" s="207" t="str">
         <f>'Research data'!C17</f>
         <v xml:space="preserve">fever.cop_per_degree </v>
       </c>
-      <c r="D15" s="206"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="206"/>
-      <c r="G15" s="206"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="206"/>
-      <c r="J15" s="207"/>
-      <c r="K15" s="215"/>
+      <c r="D15" s="205"/>
+      <c r="E15" s="205"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="205"/>
+      <c r="H15" s="205"/>
+      <c r="I15" s="205"/>
+      <c r="J15" s="206"/>
+      <c r="K15" s="214"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="44"/>
-      <c r="C16" s="208" t="str">
+      <c r="C16" s="207" t="str">
         <f>'Research data'!C16</f>
         <v xml:space="preserve">fever.cop_cutoff </v>
       </c>
-      <c r="D16" s="206"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="206"/>
-      <c r="G16" s="206"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="206"/>
-      <c r="J16" s="207"/>
-      <c r="K16" s="215"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="205"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="214"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="44"/>
-      <c r="C17" s="217"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="206"/>
-      <c r="G17" s="206"/>
-      <c r="H17" s="206"/>
-      <c r="I17" s="206"/>
-      <c r="J17" s="207"/>
-      <c r="K17" s="215"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="205"/>
+      <c r="E17" s="205"/>
+      <c r="F17" s="205"/>
+      <c r="G17" s="205"/>
+      <c r="H17" s="205"/>
+      <c r="I17" s="205"/>
+      <c r="J17" s="206"/>
+      <c r="K17" s="214"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="44"/>
-      <c r="C18" s="217"/>
-      <c r="D18" s="206"/>
-      <c r="E18" s="206" t="s">
+      <c r="C18" s="216"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205" t="s">
         <v>159</v>
       </c>
-      <c r="F18" s="206" t="s">
+      <c r="F18" s="205" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="206"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="216">
+      <c r="G18" s="205"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="215">
         <v>42948</v>
       </c>
-      <c r="J18" s="207" t="s">
+      <c r="J18" s="206" t="s">
         <v>162</v>
       </c>
-      <c r="K18" s="215" t="s">
+      <c r="K18" s="214" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="44"/>
-      <c r="C19" s="218" t="str">
+      <c r="C19" s="217" t="str">
         <f>Dashboard!C36</f>
         <v>cost_of_installing</v>
       </c>
-      <c r="D19" s="206"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="206"/>
-      <c r="G19" s="206"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="206"/>
-      <c r="J19" s="207"/>
-      <c r="K19" s="215"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="205"/>
+      <c r="F19" s="205"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="205"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="214"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="44"/>
-      <c r="C20" s="218" t="str">
+      <c r="C20" s="217" t="str">
         <f>Dashboard!C38</f>
         <v>fixed_operation_and_maintenance_costs_per_year</v>
       </c>
-      <c r="D20" s="206"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="206"/>
-      <c r="G20" s="206"/>
-      <c r="H20" s="206"/>
-      <c r="I20" s="206"/>
-      <c r="J20" s="207"/>
-      <c r="K20" s="215"/>
+      <c r="D20" s="205"/>
+      <c r="E20" s="205"/>
+      <c r="F20" s="205"/>
+      <c r="G20" s="205"/>
+      <c r="H20" s="205"/>
+      <c r="I20" s="205"/>
+      <c r="J20" s="206"/>
+      <c r="K20" s="214"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="44"/>
-      <c r="C21" s="218" t="str">
+      <c r="C21" s="217" t="str">
         <f>'Research data'!C18</f>
         <v>storage.volume</v>
       </c>
-      <c r="D21" s="206"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="206"/>
-      <c r="G21" s="206"/>
-      <c r="H21" s="206"/>
-      <c r="I21" s="206"/>
-      <c r="J21" s="207"/>
-      <c r="K21" s="215"/>
+      <c r="D21" s="205"/>
+      <c r="E21" s="205"/>
+      <c r="F21" s="205"/>
+      <c r="G21" s="205"/>
+      <c r="H21" s="205"/>
+      <c r="I21" s="205"/>
+      <c r="J21" s="206"/>
+      <c r="K21" s="214"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="44"/>
-      <c r="C22" s="218"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="206"/>
-      <c r="G22" s="206"/>
-      <c r="H22" s="206"/>
-      <c r="I22" s="206"/>
-      <c r="J22" s="207"/>
-      <c r="K22" s="215"/>
+      <c r="C22" s="217"/>
+      <c r="D22" s="205"/>
+      <c r="E22" s="205"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="205"/>
+      <c r="I22" s="205"/>
+      <c r="J22" s="206"/>
+      <c r="K22" s="214"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="44"/>
-      <c r="C23" s="218" t="str">
+      <c r="C23" s="217" t="str">
         <f>Dashboard!C$43</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D23" s="206"/>
-      <c r="E23" s="206" t="s">
+      <c r="D23" s="205"/>
+      <c r="E23" s="205" t="s">
         <v>200</v>
       </c>
-      <c r="F23" s="206" t="s">
+      <c r="F23" s="205" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="206" t="s">
+      <c r="G23" s="205" t="s">
         <v>161</v>
       </c>
-      <c r="H23" s="206" t="s">
+      <c r="H23" s="205" t="s">
         <v>161</v>
       </c>
-      <c r="I23" s="216">
+      <c r="I23" s="215">
         <v>42979</v>
       </c>
-      <c r="J23" s="207"/>
-      <c r="K23" s="215" t="s">
+      <c r="J23" s="206"/>
+      <c r="K23" s="214" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="44"/>
-      <c r="C24" s="207"/>
-      <c r="D24" s="206"/>
-      <c r="E24" s="206"/>
-      <c r="F24" s="206"/>
-      <c r="G24" s="206"/>
-      <c r="H24" s="206"/>
-      <c r="I24" s="206"/>
-      <c r="J24" s="207"/>
-      <c r="K24" s="215"/>
+      <c r="C24" s="206"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="206"/>
+      <c r="K24" s="214"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="44"/>
-      <c r="C25" s="218" t="str">
+      <c r="C25" s="217" t="str">
         <f>Dashboard!C$43</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D25" s="206"/>
-      <c r="E25" s="206" t="s">
+      <c r="D25" s="205"/>
+      <c r="E25" s="205" t="s">
         <v>202</v>
       </c>
-      <c r="F25" s="206" t="s">
+      <c r="F25" s="205" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="206" t="s">
+      <c r="G25" s="205" t="s">
         <v>161</v>
       </c>
-      <c r="H25" s="206" t="s">
+      <c r="H25" s="205" t="s">
         <v>161</v>
       </c>
-      <c r="I25" s="216">
+      <c r="I25" s="215">
         <v>42979</v>
       </c>
-      <c r="J25" s="207"/>
+      <c r="J25" s="206"/>
       <c r="K25" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="44"/>
-      <c r="C26" s="223"/>
-      <c r="D26" s="206"/>
-      <c r="E26" s="206"/>
-      <c r="F26" s="206"/>
-      <c r="G26" s="206"/>
-      <c r="H26" s="206"/>
-      <c r="I26" s="216"/>
-      <c r="J26" s="207"/>
+      <c r="C26" s="222"/>
+      <c r="D26" s="205"/>
+      <c r="E26" s="205"/>
+      <c r="F26" s="205"/>
+      <c r="G26" s="205"/>
+      <c r="H26" s="205"/>
+      <c r="I26" s="215"/>
+      <c r="J26" s="206"/>
       <c r="K26"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="44"/>
-      <c r="C27" s="208" t="str">
+      <c r="C27" s="207" t="str">
         <f>'Research data'!C6</f>
         <v>input.ambient_heat</v>
       </c>
-      <c r="D27" s="206"/>
-      <c r="E27" s="206" t="s">
+      <c r="D27" s="205"/>
+      <c r="E27" s="205" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="206"/>
-      <c r="G27" s="206"/>
-      <c r="H27" s="206"/>
-      <c r="I27" s="206"/>
-      <c r="J27" s="207" t="s">
+      <c r="F27" s="205"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="205"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="206" t="s">
         <v>185</v>
       </c>
-      <c r="K27" s="215"/>
+      <c r="K27" s="214"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="44"/>
-      <c r="C28" s="208" t="str">
+      <c r="C28" s="207" t="str">
         <f>'Research data'!C7</f>
         <v>input.electricity</v>
       </c>
-      <c r="D28" s="206"/>
-      <c r="E28" s="206"/>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="206"/>
-      <c r="I28" s="206"/>
-      <c r="J28" s="207"/>
-      <c r="K28" s="215"/>
+      <c r="D28" s="205"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="205"/>
+      <c r="I28" s="205"/>
+      <c r="J28" s="206"/>
+      <c r="K28" s="214"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="44"/>
-      <c r="C29" s="208" t="str">
+      <c r="C29" s="207" t="str">
         <f>'Research data'!C8</f>
         <v>input.hydrogen</v>
       </c>
-      <c r="D29" s="206"/>
-      <c r="E29" s="206"/>
-      <c r="F29" s="206"/>
-      <c r="G29" s="206"/>
-      <c r="H29" s="206"/>
-      <c r="I29" s="206"/>
-      <c r="J29" s="207"/>
-      <c r="K29" s="215"/>
+      <c r="D29" s="205"/>
+      <c r="E29" s="205"/>
+      <c r="F29" s="205"/>
+      <c r="G29" s="205"/>
+      <c r="H29" s="205"/>
+      <c r="I29" s="205"/>
+      <c r="J29" s="206"/>
+      <c r="K29" s="214"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="44"/>
-      <c r="C30" s="208" t="str">
+      <c r="C30" s="207" t="str">
         <f>Dashboard!C23</f>
         <v>storage.cost_per_mwh</v>
       </c>
-      <c r="D30" s="206"/>
-      <c r="E30" s="206"/>
-      <c r="F30" s="206"/>
-      <c r="G30" s="206"/>
-      <c r="H30" s="206"/>
-      <c r="I30" s="206"/>
-      <c r="J30" s="207"/>
-      <c r="K30" s="215"/>
+      <c r="D30" s="205"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="205"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="205"/>
+      <c r="I30" s="205"/>
+      <c r="J30" s="206"/>
+      <c r="K30" s="214"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="44"/>
-      <c r="C31" s="208" t="str">
+      <c r="C31" s="207" t="str">
         <f>'Research data'!C9</f>
         <v>output.useable_heat.ambient_heat</v>
       </c>
-      <c r="D31" s="206"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="206"/>
-      <c r="G31" s="206"/>
-      <c r="H31" s="206"/>
-      <c r="I31" s="206"/>
-      <c r="J31" s="207"/>
-      <c r="K31" s="215"/>
+      <c r="D31" s="205"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="205"/>
+      <c r="I31" s="205"/>
+      <c r="J31" s="206"/>
+      <c r="K31" s="214"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="44"/>
-      <c r="C32" s="208" t="str">
+      <c r="C32" s="207" t="str">
         <f>'Research data'!C10</f>
         <v>output.useable_heat.electricity</v>
       </c>
-      <c r="D32" s="206"/>
-      <c r="E32" s="206"/>
-      <c r="F32" s="206"/>
-      <c r="G32" s="206"/>
-      <c r="H32" s="206"/>
-      <c r="I32" s="206"/>
-      <c r="J32" s="207"/>
-      <c r="K32" s="215"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="205"/>
+      <c r="F32" s="205"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="205"/>
+      <c r="I32" s="205"/>
+      <c r="J32" s="206"/>
+      <c r="K32" s="214"/>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="44"/>
-      <c r="C33" s="208" t="str">
+      <c r="C33" s="207" t="str">
         <f>'Research data'!C11</f>
         <v>output.useable_heat.hydrogen</v>
       </c>
-      <c r="D33" s="206"/>
-      <c r="E33" s="206"/>
-      <c r="F33" s="206"/>
-      <c r="G33" s="206"/>
-      <c r="H33" s="206"/>
-      <c r="I33" s="206"/>
-      <c r="J33" s="207"/>
-      <c r="K33" s="215"/>
+      <c r="D33" s="205"/>
+      <c r="E33" s="205"/>
+      <c r="F33" s="205"/>
+      <c r="G33" s="205"/>
+      <c r="H33" s="205"/>
+      <c r="I33" s="205"/>
+      <c r="J33" s="206"/>
+      <c r="K33" s="214"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="44"/>
-      <c r="C34" s="208" t="str">
+      <c r="C34" s="207" t="str">
         <f>'Research data'!C12</f>
         <v>output.cooling</v>
       </c>
-      <c r="D34" s="206"/>
-      <c r="E34" s="206"/>
-      <c r="F34" s="206"/>
-      <c r="G34" s="206"/>
-      <c r="H34" s="206"/>
-      <c r="I34" s="206"/>
-      <c r="J34" s="207"/>
-      <c r="K34" s="215"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="205"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="205"/>
+      <c r="I34" s="205"/>
+      <c r="J34" s="206"/>
+      <c r="K34" s="214"/>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="44"/>
-      <c r="C35" s="208" t="str">
+      <c r="C35" s="207" t="str">
         <f>'Research data'!C20</f>
         <v>availability</v>
       </c>
-      <c r="D35" s="206"/>
-      <c r="E35" s="206"/>
-      <c r="F35" s="206"/>
-      <c r="G35" s="206"/>
-      <c r="H35" s="206"/>
-      <c r="I35" s="206"/>
-      <c r="J35" s="207"/>
-      <c r="K35" s="215"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="205"/>
+      <c r="I35" s="205"/>
+      <c r="J35" s="206"/>
+      <c r="K35" s="214"/>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="44"/>
-      <c r="C36" s="208" t="str">
+      <c r="C36" s="207" t="str">
         <f>'Research data'!C21</f>
         <v>forecasting_error</v>
       </c>
-      <c r="D36" s="206"/>
-      <c r="E36" s="206"/>
-      <c r="F36" s="206"/>
-      <c r="G36" s="206"/>
-      <c r="H36" s="206"/>
-      <c r="I36" s="206"/>
-      <c r="J36" s="207"/>
-      <c r="K36" s="215"/>
+      <c r="D36" s="205"/>
+      <c r="E36" s="205"/>
+      <c r="F36" s="205"/>
+      <c r="G36" s="205"/>
+      <c r="H36" s="205"/>
+      <c r="I36" s="205"/>
+      <c r="J36" s="206"/>
+      <c r="K36" s="214"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="44"/>
-      <c r="C37" s="208" t="str">
+      <c r="C37" s="207" t="str">
         <f>'Research data'!C22</f>
         <v>full_load_hours</v>
       </c>
-      <c r="D37" s="206"/>
-      <c r="E37" s="206"/>
-      <c r="F37" s="206"/>
-      <c r="G37" s="206"/>
-      <c r="H37" s="206"/>
-      <c r="I37" s="206"/>
-      <c r="J37" s="207"/>
-      <c r="K37" s="215"/>
+      <c r="D37" s="205"/>
+      <c r="E37" s="205"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="206"/>
+      <c r="K37" s="214"/>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="44"/>
-      <c r="C38" s="208" t="str">
+      <c r="C38" s="207" t="str">
         <f>'Research data'!C23</f>
         <v>households_supplied_per_unit</v>
       </c>
-      <c r="D38" s="206"/>
-      <c r="E38" s="206"/>
-      <c r="F38" s="206"/>
-      <c r="G38" s="206"/>
-      <c r="H38" s="206"/>
-      <c r="I38" s="206"/>
-      <c r="J38" s="207"/>
-      <c r="K38" s="215"/>
+      <c r="D38" s="205"/>
+      <c r="E38" s="205"/>
+      <c r="F38" s="205"/>
+      <c r="G38" s="205"/>
+      <c r="H38" s="205"/>
+      <c r="I38" s="205"/>
+      <c r="J38" s="206"/>
+      <c r="K38" s="214"/>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="44"/>
-      <c r="C39" s="208" t="str">
+      <c r="C39" s="207" t="str">
         <f>'Research data'!C24</f>
         <v>part_load_efficiency_penalty</v>
       </c>
-      <c r="D39" s="206"/>
-      <c r="E39" s="206"/>
-      <c r="F39" s="206"/>
-      <c r="G39" s="206"/>
-      <c r="H39" s="206"/>
-      <c r="I39" s="206"/>
-      <c r="J39" s="207"/>
-      <c r="K39" s="215"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="205"/>
+      <c r="F39" s="205"/>
+      <c r="G39" s="205"/>
+      <c r="H39" s="205"/>
+      <c r="I39" s="205"/>
+      <c r="J39" s="206"/>
+      <c r="K39" s="214"/>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="44"/>
-      <c r="C40" s="208" t="str">
+      <c r="C40" s="207" t="str">
         <f>'Research data'!C25</f>
         <v>part_load_operating_point</v>
       </c>
-      <c r="D40" s="206"/>
-      <c r="E40" s="206"/>
-      <c r="F40" s="206"/>
-      <c r="G40" s="206"/>
-      <c r="H40" s="206"/>
-      <c r="I40" s="206"/>
-      <c r="J40" s="207"/>
-      <c r="K40" s="215"/>
+      <c r="D40" s="205"/>
+      <c r="E40" s="205"/>
+      <c r="F40" s="205"/>
+      <c r="G40" s="205"/>
+      <c r="H40" s="205"/>
+      <c r="I40" s="205"/>
+      <c r="J40" s="206"/>
+      <c r="K40" s="214"/>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="44"/>
-      <c r="C41" s="208" t="str">
+      <c r="C41" s="207" t="str">
         <f>'Research data'!C26</f>
         <v>electricity_output_capacity</v>
       </c>
-      <c r="D41" s="206"/>
-      <c r="E41" s="206"/>
-      <c r="F41" s="206"/>
-      <c r="G41" s="206"/>
-      <c r="H41" s="206"/>
-      <c r="I41" s="206"/>
-      <c r="J41" s="207"/>
-      <c r="K41" s="215"/>
+      <c r="D41" s="205"/>
+      <c r="E41" s="205"/>
+      <c r="F41" s="205"/>
+      <c r="G41" s="205"/>
+      <c r="H41" s="205"/>
+      <c r="I41" s="205"/>
+      <c r="J41" s="206"/>
+      <c r="K41" s="214"/>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="44"/>
-      <c r="C42" s="208" t="e">
+      <c r="C42" s="207" t="e">
         <f>'Research data'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D42" s="206"/>
-      <c r="E42" s="206"/>
-      <c r="F42" s="206"/>
-      <c r="G42" s="206"/>
-      <c r="H42" s="206"/>
-      <c r="I42" s="206"/>
-      <c r="J42" s="207"/>
-      <c r="K42" s="215"/>
+      <c r="D42" s="205"/>
+      <c r="E42" s="205"/>
+      <c r="F42" s="205"/>
+      <c r="G42" s="205"/>
+      <c r="H42" s="205"/>
+      <c r="I42" s="205"/>
+      <c r="J42" s="206"/>
+      <c r="K42" s="214"/>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="44"/>
-      <c r="C43" s="208" t="e">
+      <c r="C43" s="207" t="e">
         <f>'Research data'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D43" s="206"/>
-      <c r="E43" s="206"/>
-      <c r="F43" s="206"/>
-      <c r="G43" s="206"/>
-      <c r="H43" s="206"/>
-      <c r="I43" s="206"/>
-      <c r="J43" s="207"/>
-      <c r="K43" s="215"/>
+      <c r="D43" s="205"/>
+      <c r="E43" s="205"/>
+      <c r="F43" s="205"/>
+      <c r="G43" s="205"/>
+      <c r="H43" s="205"/>
+      <c r="I43" s="205"/>
+      <c r="J43" s="206"/>
+      <c r="K43" s="214"/>
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="44"/>
-      <c r="C44" s="208" t="e">
+      <c r="C44" s="207" t="e">
         <f>'Research data'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D44" s="206"/>
-      <c r="E44" s="206"/>
-      <c r="F44" s="206"/>
-      <c r="G44" s="206"/>
-      <c r="H44" s="206"/>
-      <c r="I44" s="206"/>
-      <c r="J44" s="207"/>
-      <c r="K44" s="215"/>
+      <c r="D44" s="205"/>
+      <c r="E44" s="205"/>
+      <c r="F44" s="205"/>
+      <c r="G44" s="205"/>
+      <c r="H44" s="205"/>
+      <c r="I44" s="205"/>
+      <c r="J44" s="206"/>
+      <c r="K44" s="214"/>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" s="44"/>
-      <c r="C45" s="208" t="e">
+      <c r="C45" s="207" t="e">
         <f>'Research data'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D45" s="206"/>
-      <c r="E45" s="206"/>
-      <c r="F45" s="206"/>
-      <c r="G45" s="206"/>
-      <c r="H45" s="206"/>
-      <c r="I45" s="206"/>
-      <c r="J45" s="207"/>
-      <c r="K45" s="215"/>
+      <c r="D45" s="205"/>
+      <c r="E45" s="205"/>
+      <c r="F45" s="205"/>
+      <c r="G45" s="205"/>
+      <c r="H45" s="205"/>
+      <c r="I45" s="205"/>
+      <c r="J45" s="206"/>
+      <c r="K45" s="214"/>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="44"/>
-      <c r="C46" s="208" t="str">
+      <c r="C46" s="207" t="str">
         <f>Dashboard!C34</f>
         <v>initial_investment</v>
       </c>
-      <c r="D46" s="206"/>
-      <c r="E46" s="206"/>
-      <c r="F46" s="206"/>
-      <c r="G46" s="206"/>
-      <c r="H46" s="206"/>
-      <c r="I46" s="206"/>
-      <c r="J46" s="207"/>
-      <c r="K46" s="215"/>
+      <c r="D46" s="205"/>
+      <c r="E46" s="205"/>
+      <c r="F46" s="205"/>
+      <c r="G46" s="205"/>
+      <c r="H46" s="205"/>
+      <c r="I46" s="205"/>
+      <c r="J46" s="206"/>
+      <c r="K46" s="214"/>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="44"/>
-      <c r="C47" s="208" t="s">
+      <c r="C47" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="206"/>
-      <c r="E47" s="206"/>
-      <c r="F47" s="206"/>
-      <c r="G47" s="206"/>
-      <c r="H47" s="206"/>
-      <c r="I47" s="206"/>
-      <c r="J47" s="207"/>
-      <c r="K47" s="215"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="205"/>
+      <c r="F47" s="205"/>
+      <c r="G47" s="205"/>
+      <c r="H47" s="205"/>
+      <c r="I47" s="205"/>
+      <c r="J47" s="206"/>
+      <c r="K47" s="214"/>
     </row>
     <row r="48" spans="2:11">
       <c r="B48" s="44"/>
-      <c r="C48" s="208" t="str">
+      <c r="C48" s="207" t="str">
         <f>Dashboard!C38</f>
         <v>fixed_operation_and_maintenance_costs_per_year</v>
       </c>
-      <c r="D48" s="206"/>
-      <c r="E48" s="206"/>
-      <c r="F48" s="206"/>
-      <c r="G48" s="206"/>
-      <c r="H48" s="206"/>
-      <c r="I48" s="206"/>
-      <c r="J48" s="207"/>
-      <c r="K48" s="215"/>
+      <c r="D48" s="205"/>
+      <c r="E48" s="205"/>
+      <c r="F48" s="205"/>
+      <c r="G48" s="205"/>
+      <c r="H48" s="205"/>
+      <c r="I48" s="205"/>
+      <c r="J48" s="206"/>
+      <c r="K48" s="214"/>
     </row>
     <row r="49" spans="1:11">
       <c r="B49" s="44"/>
-      <c r="C49" s="208" t="str">
+      <c r="C49" s="207" t="str">
         <f>Dashboard!C39</f>
         <v>variable_operation_and_maintenance_costs_per_full_load_hour</v>
       </c>
-      <c r="D49" s="206"/>
-      <c r="E49" s="206"/>
-      <c r="F49" s="206"/>
-      <c r="G49" s="206"/>
-      <c r="H49" s="206"/>
-      <c r="I49" s="206"/>
-      <c r="J49" s="207"/>
-      <c r="K49" s="215"/>
+      <c r="D49" s="205"/>
+      <c r="E49" s="205"/>
+      <c r="F49" s="205"/>
+      <c r="G49" s="205"/>
+      <c r="H49" s="205"/>
+      <c r="I49" s="205"/>
+      <c r="J49" s="206"/>
+      <c r="K49" s="214"/>
     </row>
     <row r="50" spans="1:11">
       <c r="B50" s="44"/>
-      <c r="C50" s="208" t="str">
+      <c r="C50" s="207" t="str">
         <f>Dashboard!C40</f>
         <v>variable_operation_and_maintenance_costs_for_ccs_per_full_load_hour</v>
       </c>
-      <c r="D50" s="206"/>
-      <c r="E50" s="206"/>
-      <c r="F50" s="206"/>
-      <c r="G50" s="206"/>
-      <c r="H50" s="206"/>
-      <c r="I50" s="206"/>
-      <c r="J50" s="207"/>
-      <c r="K50" s="215"/>
+      <c r="D50" s="205"/>
+      <c r="E50" s="205"/>
+      <c r="F50" s="205"/>
+      <c r="G50" s="205"/>
+      <c r="H50" s="205"/>
+      <c r="I50" s="205"/>
+      <c r="J50" s="206"/>
+      <c r="K50" s="214"/>
     </row>
     <row r="51" spans="1:11">
       <c r="B51" s="44"/>
-      <c r="C51" s="208" t="str">
+      <c r="C51" s="207" t="str">
         <f>Dashboard!C41</f>
         <v>wacc</v>
       </c>
-      <c r="D51" s="206"/>
-      <c r="E51" s="206"/>
-      <c r="F51" s="206"/>
-      <c r="G51" s="206"/>
-      <c r="H51" s="206"/>
-      <c r="I51" s="206"/>
-      <c r="J51" s="207"/>
-      <c r="K51" s="215"/>
+      <c r="D51" s="205"/>
+      <c r="E51" s="205"/>
+      <c r="F51" s="205"/>
+      <c r="G51" s="205"/>
+      <c r="H51" s="205"/>
+      <c r="I51" s="205"/>
+      <c r="J51" s="206"/>
+      <c r="K51" s="214"/>
     </row>
     <row r="52" spans="1:11">
       <c r="B52" s="44"/>
-      <c r="C52" s="208" t="str">
+      <c r="C52" s="207" t="str">
         <f>Dashboard!C45</f>
         <v>Other</v>
       </c>
-      <c r="D52" s="206"/>
-      <c r="E52" s="206"/>
-      <c r="F52" s="206"/>
-      <c r="G52" s="206"/>
-      <c r="H52" s="206"/>
-      <c r="I52" s="206"/>
-      <c r="J52" s="207"/>
-      <c r="K52" s="215"/>
+      <c r="D52" s="205"/>
+      <c r="E52" s="205"/>
+      <c r="F52" s="205"/>
+      <c r="G52" s="205"/>
+      <c r="H52" s="205"/>
+      <c r="I52" s="205"/>
+      <c r="J52" s="206"/>
+      <c r="K52" s="214"/>
     </row>
     <row r="53" spans="1:11">
       <c r="B53" s="44"/>
-      <c r="C53" s="208" t="str">
+      <c r="C53" s="207" t="str">
         <f>Dashboard!C46</f>
         <v>land_use_per_unit</v>
       </c>
-      <c r="D53" s="206"/>
-      <c r="E53" s="206"/>
-      <c r="F53" s="206"/>
-      <c r="G53" s="206"/>
-      <c r="H53" s="206"/>
-      <c r="I53" s="206"/>
-      <c r="J53" s="207"/>
-      <c r="K53" s="215"/>
+      <c r="D53" s="205"/>
+      <c r="E53" s="205"/>
+      <c r="F53" s="205"/>
+      <c r="G53" s="205"/>
+      <c r="H53" s="205"/>
+      <c r="I53" s="205"/>
+      <c r="J53" s="206"/>
+      <c r="K53" s="214"/>
     </row>
     <row r="54" spans="1:11">
       <c r="B54" s="44"/>
-      <c r="C54" s="208" t="str">
+      <c r="C54" s="207" t="str">
         <f>Dashboard!C47</f>
         <v>construction_time</v>
       </c>
-      <c r="D54" s="206"/>
-      <c r="E54" s="206"/>
-      <c r="F54" s="206"/>
-      <c r="G54" s="206"/>
-      <c r="H54" s="206"/>
-      <c r="I54" s="206"/>
-      <c r="J54" s="207"/>
-      <c r="K54" s="215"/>
+      <c r="D54" s="205"/>
+      <c r="E54" s="205"/>
+      <c r="F54" s="205"/>
+      <c r="G54" s="205"/>
+      <c r="H54" s="205"/>
+      <c r="I54" s="205"/>
+      <c r="J54" s="206"/>
+      <c r="K54" s="214"/>
     </row>
     <row r="55" spans="1:11">
       <c r="B55" s="44"/>
-      <c r="C55" s="208" t="str">
+      <c r="C55" s="207" t="str">
         <f>Dashboard!C48</f>
         <v>technical_lifetime</v>
       </c>
-      <c r="D55" s="206"/>
-      <c r="E55" s="206"/>
-      <c r="F55" s="206"/>
-      <c r="G55" s="206"/>
-      <c r="H55" s="206"/>
-      <c r="I55" s="206"/>
-      <c r="J55" s="207"/>
-      <c r="K55" s="215"/>
+      <c r="D55" s="205"/>
+      <c r="E55" s="205"/>
+      <c r="F55" s="205"/>
+      <c r="G55" s="205"/>
+      <c r="H55" s="205"/>
+      <c r="I55" s="205"/>
+      <c r="J55" s="206"/>
+      <c r="K55" s="214"/>
     </row>
     <row r="56" spans="1:11">
       <c r="B56" s="44"/>
-      <c r="C56" s="208" t="str">
+      <c r="C56" s="207" t="str">
         <f>Dashboard!C49</f>
         <v>free_co2_factor</v>
       </c>
-      <c r="D56" s="206"/>
-      <c r="E56" s="206"/>
-      <c r="F56" s="206"/>
-      <c r="G56" s="206"/>
-      <c r="H56" s="206"/>
-      <c r="I56" s="206"/>
-      <c r="J56" s="207"/>
-      <c r="K56" s="215"/>
+      <c r="D56" s="205"/>
+      <c r="E56" s="205"/>
+      <c r="F56" s="205"/>
+      <c r="G56" s="205"/>
+      <c r="H56" s="205"/>
+      <c r="I56" s="205"/>
+      <c r="J56" s="206"/>
+      <c r="K56" s="214"/>
     </row>
     <row r="57" spans="1:11">
       <c r="B57" s="44"/>
-      <c r="C57" s="208" t="str">
+      <c r="C57" s="207" t="str">
         <f>Dashboard!C50</f>
         <v>hours_prep_nl</v>
       </c>
-      <c r="D57" s="206"/>
-      <c r="E57" s="206"/>
-      <c r="F57" s="206"/>
-      <c r="G57" s="206"/>
-      <c r="H57" s="206"/>
-      <c r="I57" s="206"/>
-      <c r="J57" s="207"/>
-      <c r="K57" s="215"/>
+      <c r="D57" s="205"/>
+      <c r="E57" s="205"/>
+      <c r="F57" s="205"/>
+      <c r="G57" s="205"/>
+      <c r="H57" s="205"/>
+      <c r="I57" s="205"/>
+      <c r="J57" s="206"/>
+      <c r="K57" s="214"/>
     </row>
     <row r="58" spans="1:11">
       <c r="B58" s="44"/>
-      <c r="C58" s="208" t="str">
+      <c r="C58" s="207" t="str">
         <f>Dashboard!C51</f>
         <v>hours_prod_nl</v>
       </c>
-      <c r="D58" s="206"/>
-      <c r="E58" s="206"/>
-      <c r="F58" s="206"/>
-      <c r="G58" s="206"/>
-      <c r="H58" s="206"/>
-      <c r="I58" s="206"/>
-      <c r="J58" s="207"/>
-      <c r="K58" s="215"/>
+      <c r="D58" s="205"/>
+      <c r="E58" s="205"/>
+      <c r="F58" s="205"/>
+      <c r="G58" s="205"/>
+      <c r="H58" s="205"/>
+      <c r="I58" s="205"/>
+      <c r="J58" s="206"/>
+      <c r="K58" s="214"/>
     </row>
     <row r="59" spans="1:11">
       <c r="B59" s="44"/>
-      <c r="C59" s="208" t="str">
+      <c r="C59" s="207" t="str">
         <f>Dashboard!C52</f>
         <v>hours_place_nl</v>
       </c>
-      <c r="D59" s="206"/>
-      <c r="E59" s="206"/>
-      <c r="F59" s="206"/>
-      <c r="G59" s="206"/>
-      <c r="H59" s="206"/>
-      <c r="I59" s="206"/>
-      <c r="J59" s="207"/>
-      <c r="K59" s="215"/>
+      <c r="D59" s="205"/>
+      <c r="E59" s="205"/>
+      <c r="F59" s="205"/>
+      <c r="G59" s="205"/>
+      <c r="H59" s="205"/>
+      <c r="I59" s="205"/>
+      <c r="J59" s="206"/>
+      <c r="K59" s="214"/>
     </row>
     <row r="60" spans="1:11">
       <c r="B60" s="44"/>
-      <c r="C60" s="208" t="str">
+      <c r="C60" s="207" t="str">
         <f>Dashboard!C53</f>
         <v>hours_maint_nl</v>
       </c>
-      <c r="D60" s="206"/>
-      <c r="E60" s="206" t="str">
+      <c r="D60" s="205"/>
+      <c r="E60" s="205" t="str">
         <f>IF(ISNUMBER('Research data'!#REF!),'Research data'!#REF!,"")</f>
         <v/>
       </c>
-      <c r="F60" s="206" t="str">
+      <c r="F60" s="205" t="str">
         <f>IF(ISNUMBER('Research data'!H1),'Research data'!H1,"")</f>
         <v/>
       </c>
-      <c r="G60" s="206" t="str">
+      <c r="G60" s="205" t="str">
         <f>IF(ISNUMBER('Research data'!#REF!),'Research data'!#REF!,"")</f>
         <v/>
       </c>
-      <c r="H60" s="206" t="str">
+      <c r="H60" s="205" t="str">
         <f>IF(ISNUMBER('Research data'!I1),'Research data'!I1,"")</f>
         <v/>
       </c>
-      <c r="I60" s="206"/>
-      <c r="J60" s="207"/>
-      <c r="K60" s="215"/>
+      <c r="I60" s="205"/>
+      <c r="J60" s="206"/>
+      <c r="K60" s="214"/>
     </row>
     <row r="61" spans="1:11">
       <c r="B61" s="44"/>
-      <c r="C61" s="201"/>
+      <c r="C61" s="200"/>
       <c r="D61" s="47"/>
       <c r="E61" s="47" t="str">
         <f>IF(ISNUMBER('Research data'!#REF!),'Research data'!#REF!,"")</f>
@@ -7234,7 +7218,7 @@
     <row r="63" spans="1:11">
       <c r="A63" s="102"/>
       <c r="B63" s="103"/>
-      <c r="C63" s="201"/>
+      <c r="C63" s="200"/>
       <c r="D63" s="137"/>
       <c r="E63" s="137"/>
       <c r="F63" s="137"/>
@@ -7247,7 +7231,7 @@
     <row r="64" spans="1:11" ht="17" thickBot="1">
       <c r="A64" s="102"/>
       <c r="B64" s="138"/>
-      <c r="C64" s="203"/>
+      <c r="C64" s="202"/>
       <c r="D64" s="139"/>
       <c r="E64" s="139"/>
       <c r="F64" s="139"/>
@@ -8523,7 +8507,7 @@
       <c r="C51" s="109"/>
       <c r="D51" s="109"/>
       <c r="E51" s="109"/>
-      <c r="F51" s="234" t="s">
+      <c r="F51" s="224" t="s">
         <v>211</v>
       </c>
       <c r="G51" s="92"/>
@@ -8545,7 +8529,7 @@
       <c r="B52" s="93"/>
       <c r="C52" s="109"/>
       <c r="D52" s="109"/>
-      <c r="E52" s="235">
+      <c r="E52" s="225">
         <v>35.17</v>
       </c>
       <c r="F52" s="106" t="s">
@@ -8570,7 +8554,7 @@
       <c r="B53" s="93"/>
       <c r="C53" s="109"/>
       <c r="D53" s="109"/>
-      <c r="E53" s="235">
+      <c r="E53" s="225">
         <v>31.65</v>
       </c>
       <c r="F53" s="106" t="s">
@@ -8595,7 +8579,7 @@
       <c r="B54" s="93"/>
       <c r="C54" s="109"/>
       <c r="D54" s="109"/>
-      <c r="E54" s="235">
+      <c r="E54" s="225">
         <f>E53*E38</f>
         <v>28.484999999999999</v>
       </c>
@@ -8619,7 +8603,7 @@
       <c r="B55" s="93"/>
       <c r="C55" s="109"/>
       <c r="D55" s="109"/>
-      <c r="E55" s="235">
+      <c r="E55" s="225">
         <f>E54/E52</f>
         <v>0.80992323002558997</v>
       </c>
@@ -8682,7 +8666,7 @@
       <c r="B58" s="93"/>
       <c r="C58" s="109"/>
       <c r="D58" s="109"/>
-      <c r="F58" s="235" t="s">
+      <c r="F58" s="225" t="s">
         <v>212</v>
       </c>
       <c r="H58" s="109"/>
@@ -8703,7 +8687,7 @@
       <c r="B59" s="93"/>
       <c r="C59" s="109"/>
       <c r="D59" s="109"/>
-      <c r="E59" s="235">
+      <c r="E59" s="225">
         <v>141</v>
       </c>
       <c r="F59" s="106" t="s">
@@ -8728,7 +8712,7 @@
       <c r="B60" s="93"/>
       <c r="C60" s="109"/>
       <c r="D60" s="109"/>
-      <c r="E60" s="235">
+      <c r="E60" s="225">
         <v>120</v>
       </c>
       <c r="F60" s="106" t="s">
@@ -8753,7 +8737,7 @@
       <c r="B61" s="93"/>
       <c r="C61" s="109"/>
       <c r="D61" s="109"/>
-      <c r="E61" s="235">
+      <c r="E61" s="225">
         <f>E59*E55</f>
         <v>114.19917543360819</v>
       </c>
@@ -8777,7 +8761,7 @@
       <c r="B62" s="93"/>
       <c r="C62" s="109"/>
       <c r="D62" s="109"/>
-      <c r="E62" s="235">
+      <c r="E62" s="225">
         <f>E61/E60</f>
         <v>0.95165979528006828</v>
       </c>
@@ -12424,7 +12408,7 @@
       <c r="B226" s="126"/>
       <c r="C226" s="127"/>
       <c r="D226" s="144" t="str">
-        <f>'Research data'!C44</f>
+        <f>'Research data'!C43</f>
         <v>technical_lifetime</v>
       </c>
       <c r="E226" s="129">
@@ -13693,7 +13677,7 @@
         <f>'[2]Research data'!C222</f>
         <v>0</v>
       </c>
-      <c r="E280" s="220">
+      <c r="E280" s="219">
         <f>E284*E285</f>
         <v>50713.749060856499</v>
       </c>
@@ -13745,7 +13729,7 @@
       <c r="D283" s="127" t="s">
         <v>191</v>
       </c>
-      <c r="E283" s="221">
+      <c r="E283" s="220">
         <f>E282/1.21</f>
         <v>471.07438016528926</v>
       </c>
@@ -13763,7 +13747,7 @@
       <c r="D284" s="127" t="s">
         <v>192</v>
       </c>
-      <c r="E284" s="222">
+      <c r="E284" s="221">
         <f>E283/E281</f>
         <v>2.3553719008264462</v>
       </c>
@@ -13781,7 +13765,7 @@
       <c r="D285" s="127" t="s">
         <v>194</v>
       </c>
-      <c r="E285" s="221">
+      <c r="E285" s="220">
         <f>E315</f>
         <v>21531.100478468899</v>
       </c>
@@ -13799,7 +13783,7 @@
       <c r="D286" s="127" t="s">
         <v>196</v>
       </c>
-      <c r="E286" s="221">
+      <c r="E286" s="220">
         <f>E280*E$22</f>
         <v>0</v>
       </c>
@@ -13815,7 +13799,7 @@
       <c r="B287" s="126"/>
       <c r="C287" s="127"/>
       <c r="D287" s="127"/>
-      <c r="E287" s="221"/>
+      <c r="E287" s="220"/>
       <c r="F287" s="127"/>
       <c r="G287" s="127"/>
       <c r="H287" s="127"/>
@@ -13826,7 +13810,7 @@
       <c r="B288" s="126"/>
       <c r="C288" s="127"/>
       <c r="D288" s="127"/>
-      <c r="E288" s="221"/>
+      <c r="E288" s="220"/>
       <c r="F288" s="127"/>
       <c r="G288" s="127"/>
       <c r="H288" s="127"/>
@@ -13927,7 +13911,7 @@
         <f>'[2]Research data'!C269</f>
         <v>0</v>
       </c>
-      <c r="E294" s="224">
+      <c r="E294" s="223">
         <f>(E293/3600000)</f>
         <v>9.2888888888888882E-3</v>
       </c>
@@ -13943,7 +13927,7 @@
       <c r="B295" s="126"/>
       <c r="C295" s="127"/>
       <c r="D295" s="127"/>
-      <c r="E295" s="221"/>
+      <c r="E295" s="220"/>
       <c r="F295" s="127"/>
       <c r="G295" s="127"/>
       <c r="H295" s="127"/>
@@ -13954,7 +13938,7 @@
       <c r="B296" s="126"/>
       <c r="C296" s="127"/>
       <c r="D296" s="127"/>
-      <c r="E296" s="221"/>
+      <c r="E296" s="220"/>
       <c r="F296" s="127"/>
       <c r="G296" s="127"/>
       <c r="H296" s="127"/>
@@ -13965,7 +13949,7 @@
       <c r="B297" s="126"/>
       <c r="C297" s="127"/>
       <c r="D297" s="127"/>
-      <c r="E297" s="221"/>
+      <c r="E297" s="220"/>
       <c r="F297" s="127"/>
       <c r="G297" s="127"/>
       <c r="H297" s="127"/>
@@ -13976,7 +13960,7 @@
       <c r="B298" s="126"/>
       <c r="C298" s="127"/>
       <c r="D298" s="127"/>
-      <c r="E298" s="221"/>
+      <c r="E298" s="220"/>
       <c r="F298" s="127"/>
       <c r="G298" s="127"/>
       <c r="H298" s="127"/>
@@ -13987,7 +13971,7 @@
       <c r="B299" s="126"/>
       <c r="C299" s="127"/>
       <c r="D299" s="127"/>
-      <c r="E299" s="221"/>
+      <c r="E299" s="220"/>
       <c r="F299" s="127"/>
       <c r="G299" s="127"/>
       <c r="H299" s="127"/>
@@ -13998,7 +13982,7 @@
       <c r="B300" s="126"/>
       <c r="C300" s="127"/>
       <c r="D300" s="127"/>
-      <c r="E300" s="221"/>
+      <c r="E300" s="220"/>
       <c r="F300" s="127"/>
       <c r="G300" s="127"/>
       <c r="H300" s="127"/>
@@ -14009,7 +13993,7 @@
       <c r="B301" s="126"/>
       <c r="C301" s="127"/>
       <c r="D301" s="127"/>
-      <c r="E301" s="221"/>
+      <c r="E301" s="220"/>
       <c r="F301" s="127"/>
       <c r="G301" s="127"/>
       <c r="H301" s="127"/>
@@ -14020,7 +14004,7 @@
       <c r="B302" s="126"/>
       <c r="C302" s="127"/>
       <c r="D302" s="127"/>
-      <c r="E302" s="221"/>
+      <c r="E302" s="220"/>
       <c r="F302" s="127"/>
       <c r="G302" s="127"/>
       <c r="H302" s="127"/>
@@ -14031,7 +14015,7 @@
       <c r="B303" s="126"/>
       <c r="C303" s="127"/>
       <c r="D303" s="127"/>
-      <c r="E303" s="221"/>
+      <c r="E303" s="220"/>
       <c r="F303" s="127"/>
       <c r="G303" s="127"/>
       <c r="H303" s="127"/>
@@ -14042,7 +14026,7 @@
       <c r="B304" s="126"/>
       <c r="C304" s="127"/>
       <c r="D304" s="127"/>
-      <c r="E304" s="221"/>
+      <c r="E304" s="220"/>
       <c r="F304" s="127"/>
       <c r="G304" s="127"/>
       <c r="H304" s="127"/>
@@ -14053,7 +14037,7 @@
       <c r="B305" s="126"/>
       <c r="C305" s="127"/>
       <c r="D305" s="127"/>
-      <c r="E305" s="221"/>
+      <c r="E305" s="220"/>
       <c r="F305" s="127"/>
       <c r="G305" s="127"/>
       <c r="H305" s="127"/>
@@ -14064,7 +14048,7 @@
       <c r="B306" s="126"/>
       <c r="C306" s="127"/>
       <c r="D306" s="127"/>
-      <c r="E306" s="221"/>
+      <c r="E306" s="220"/>
       <c r="F306" s="127"/>
       <c r="G306" s="127"/>
       <c r="H306" s="127"/>
@@ -14075,7 +14059,7 @@
       <c r="B307" s="126"/>
       <c r="C307" s="127"/>
       <c r="D307" s="127"/>
-      <c r="E307" s="221"/>
+      <c r="E307" s="220"/>
       <c r="F307" s="127"/>
       <c r="G307" s="127"/>
       <c r="H307" s="127"/>
@@ -14086,7 +14070,7 @@
       <c r="B308" s="126"/>
       <c r="C308" s="127"/>
       <c r="D308" s="127"/>
-      <c r="E308" s="221"/>
+      <c r="E308" s="220"/>
       <c r="F308" s="127"/>
       <c r="G308" s="127"/>
       <c r="H308" s="127"/>
@@ -14097,7 +14081,7 @@
       <c r="B309" s="126"/>
       <c r="C309" s="127"/>
       <c r="D309" s="127"/>
-      <c r="E309" s="221"/>
+      <c r="E309" s="220"/>
       <c r="F309" s="127"/>
       <c r="G309" s="127"/>
       <c r="H309" s="127"/>
@@ -14113,7 +14097,7 @@
         <f>'[2]Research data'!C222</f>
         <v>0</v>
       </c>
-      <c r="E310" s="220">
+      <c r="E310" s="219">
         <f>E314*E315</f>
         <v>60055.755466803741</v>
       </c>
@@ -14165,7 +14149,7 @@
       <c r="D313" s="127" t="s">
         <v>191</v>
       </c>
-      <c r="E313" s="221">
+      <c r="E313" s="220">
         <f>E312/1.21</f>
         <v>334.71074380165288</v>
       </c>
@@ -14183,7 +14167,7 @@
       <c r="D314" s="127" t="s">
         <v>192</v>
       </c>
-      <c r="E314" s="222">
+      <c r="E314" s="221">
         <f>E313/E311</f>
         <v>2.7892561983471071</v>
       </c>
@@ -14201,7 +14185,7 @@
       <c r="D315" s="127" t="s">
         <v>194</v>
       </c>
-      <c r="E315" s="221">
+      <c r="E315" s="220">
         <f>E311/E325</f>
         <v>21531.100478468899</v>
       </c>
@@ -14219,7 +14203,7 @@
       <c r="D316" s="127" t="s">
         <v>196</v>
       </c>
-      <c r="E316" s="221">
+      <c r="E316" s="220">
         <f>E310*E$22</f>
         <v>0</v>
       </c>
@@ -14235,7 +14219,7 @@
       <c r="B317" s="126"/>
       <c r="C317" s="127"/>
       <c r="D317" s="127"/>
-      <c r="E317" s="221"/>
+      <c r="E317" s="220"/>
       <c r="F317" s="127"/>
       <c r="G317" s="127"/>
       <c r="H317" s="127"/>
@@ -14246,7 +14230,7 @@
       <c r="B318" s="126"/>
       <c r="C318" s="127"/>
       <c r="D318" s="127"/>
-      <c r="E318" s="221"/>
+      <c r="E318" s="220"/>
       <c r="F318" s="127"/>
       <c r="G318" s="127"/>
       <c r="H318" s="127"/>
@@ -14257,7 +14241,7 @@
       <c r="B319" s="126"/>
       <c r="C319" s="127"/>
       <c r="D319" s="127"/>
-      <c r="E319" s="221"/>
+      <c r="E319" s="220"/>
       <c r="F319" s="127"/>
       <c r="G319" s="127"/>
       <c r="H319" s="127"/>
@@ -14358,7 +14342,7 @@
         <f>'[2]Research data'!C300</f>
         <v>0</v>
       </c>
-      <c r="E325" s="224">
+      <c r="E325" s="223">
         <f>(E324/3600000)</f>
         <v>5.5733333333333329E-3</v>
       </c>
@@ -14374,7 +14358,7 @@
       <c r="B326" s="126"/>
       <c r="C326" s="127"/>
       <c r="D326" s="127"/>
-      <c r="E326" s="221"/>
+      <c r="E326" s="220"/>
       <c r="F326" s="127"/>
       <c r="G326" s="127"/>
       <c r="H326" s="127"/>
@@ -14385,7 +14369,7 @@
       <c r="B327" s="126"/>
       <c r="C327" s="127"/>
       <c r="D327" s="127"/>
-      <c r="E327" s="221"/>
+      <c r="E327" s="220"/>
       <c r="F327" s="127"/>
       <c r="G327" s="127"/>
       <c r="H327" s="127"/>
@@ -14396,7 +14380,7 @@
       <c r="B328" s="126"/>
       <c r="C328" s="127"/>
       <c r="D328" s="127"/>
-      <c r="E328" s="221"/>
+      <c r="E328" s="220"/>
       <c r="F328" s="127"/>
       <c r="G328" s="127"/>
       <c r="H328" s="127"/>
@@ -14407,7 +14391,7 @@
       <c r="B329" s="126"/>
       <c r="C329" s="127"/>
       <c r="D329" s="127"/>
-      <c r="E329" s="221"/>
+      <c r="E329" s="220"/>
       <c r="F329" s="127"/>
       <c r="G329" s="127"/>
       <c r="H329" s="127"/>
@@ -14418,7 +14402,7 @@
       <c r="B330" s="126"/>
       <c r="C330" s="127"/>
       <c r="D330" s="127"/>
-      <c r="E330" s="221"/>
+      <c r="E330" s="220"/>
       <c r="F330" s="127"/>
       <c r="G330" s="127"/>
       <c r="H330" s="127"/>
